--- a/Documents/Table_List/07_Stage_Table.xlsx
+++ b/Documents/Table_List/07_Stage_Table.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6FE9C3-680A-4CFB-9FF8-7773F70CE215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BF4778-4CFB-4DE9-9A6C-FBF3387AAFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{34FEC1AB-CE44-4252-8407-D99FC290AA8F}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{34FEC1AB-CE44-4252-8407-D99FC290AA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1550,27 +1550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,6 +1569,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0F47E7-EFB6-4CD3-A2F2-AFE697F1BD1D}">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1930,1788 +1930,1794 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="10">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="11">
-        <v>10</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>5</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="4">
         <v>910051</v>
       </c>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="10">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="E7" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
         <v>50</v>
       </c>
-      <c r="I7" s="11">
-        <v>410001</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="I7" s="4">
+        <v>410009</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
         <v>910052</v>
       </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="10">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
-        <v>10</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>2</v>
-      </c>
-      <c r="K8" s="11">
-        <v>10</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4">
         <v>910051</v>
       </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="10">
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="11">
-        <v>2</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
         <v>50</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="4">
         <v>410002</v>
       </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
         <v>910052</v>
       </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11" t="s">
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="10">
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="11">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>2</v>
-      </c>
-      <c r="K10" s="11">
-        <v>10</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4">
         <v>910051</v>
       </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="10">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F11" s="4">
         <v>6</v>
       </c>
-      <c r="G11" s="11">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
         <v>50</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="4">
         <v>410003</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <v>910052</v>
       </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="10">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="E12" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F12" s="4">
         <v>7</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="11">
-        <v>10</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>2</v>
-      </c>
-      <c r="K12" s="11">
-        <v>10</v>
-      </c>
-      <c r="L12" s="11">
+      <c r="H12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
         <v>910051</v>
       </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11" t="s">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="10">
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="G13" s="11">
-        <v>2</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
         <v>50</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="4">
         <v>410004</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
         <v>910052</v>
       </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11" t="s">
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="10">
+      <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="E14" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F14" s="4">
         <v>9</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
-      <c r="H14" s="11">
-        <v>10</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>2</v>
-      </c>
-      <c r="K14" s="11">
-        <v>10</v>
-      </c>
-      <c r="L14" s="11">
+      <c r="H14" s="4">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>10</v>
+      </c>
+      <c r="L14" s="4">
         <v>910051</v>
       </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="10">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F15" s="11">
-        <v>10</v>
-      </c>
-      <c r="G15" s="11">
-        <v>2</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="E15" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
         <v>50</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="4">
         <v>410005</v>
       </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
         <v>910052</v>
       </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11" t="s">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="10">
+      <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="E16" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F16" s="4">
         <v>11</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="4">
         <v>1</v>
       </c>
-      <c r="H16" s="11">
-        <v>10</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>2</v>
-      </c>
-      <c r="K16" s="11">
-        <v>10</v>
-      </c>
-      <c r="L16" s="11">
+      <c r="H16" s="4">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4">
         <v>910051</v>
       </c>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11" t="s">
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="10">
+      <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="E17" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F17" s="4">
         <v>12</v>
       </c>
-      <c r="G17" s="11">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
         <v>50</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="4">
         <v>410006</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
         <v>910052</v>
       </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="10">
+      <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="E18" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F18" s="4">
         <v>13</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="11">
-        <v>10</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>2</v>
-      </c>
-      <c r="K18" s="11">
-        <v>10</v>
-      </c>
-      <c r="L18" s="11">
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4">
         <v>910051</v>
       </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="10">
+      <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F19" s="4">
         <v>14</v>
       </c>
-      <c r="G19" s="11">
-        <v>2</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
         <v>50</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="4">
         <v>410007</v>
       </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
         <v>910052</v>
       </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11" t="s">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="10">
+      <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="E20" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F20" s="4">
         <v>15</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="11">
-        <v>10</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
-        <v>2</v>
-      </c>
-      <c r="K20" s="11">
-        <v>10</v>
-      </c>
-      <c r="L20" s="11">
+      <c r="H20" s="4">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>10</v>
+      </c>
+      <c r="L20" s="4">
         <v>910051</v>
       </c>
-      <c r="M20" s="11">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11" t="s">
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="10">
+      <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F21" s="4">
         <v>16</v>
       </c>
-      <c r="G21" s="11">
-        <v>2</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
         <v>50</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="4">
         <v>410008</v>
       </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
         <v>910052</v>
       </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11" t="s">
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="10">
+      <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="E22" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F22" s="4">
         <v>17</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="4">
         <v>1</v>
       </c>
-      <c r="H22" s="11">
-        <v>10</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11">
-        <v>2</v>
-      </c>
-      <c r="K22" s="11">
-        <v>10</v>
-      </c>
-      <c r="L22" s="11">
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>10</v>
+      </c>
+      <c r="L22" s="4">
         <v>910051</v>
       </c>
-      <c r="M22" s="11">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11" t="s">
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="10">
+      <c r="B23" s="3">
         <v>18</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="E23" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F23" s="4">
         <v>18</v>
       </c>
-      <c r="G23" s="11">
-        <v>2</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
         <v>50</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="4">
         <v>410009</v>
       </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
         <v>910052</v>
       </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11" t="s">
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="10">
+      <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="E24" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F24" s="4">
         <v>19</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="4">
         <v>1</v>
       </c>
-      <c r="H24" s="11">
-        <v>10</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11">
-        <v>2</v>
-      </c>
-      <c r="K24" s="11">
-        <v>10</v>
-      </c>
-      <c r="L24" s="11">
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4">
+        <v>10</v>
+      </c>
+      <c r="L24" s="4">
         <v>910051</v>
       </c>
-      <c r="M24" s="11">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11" t="s">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="10">
+      <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="E25" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F25" s="4">
         <v>20</v>
       </c>
-      <c r="G25" s="11">
-        <v>2</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
         <v>50</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="4">
         <v>410010</v>
       </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
         <v>910052</v>
       </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11" t="s">
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="10">
+      <c r="B26" s="3">
         <v>21</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="E26" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F26" s="4">
         <v>21</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="11">
-        <v>10</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
-        <v>2</v>
-      </c>
-      <c r="K26" s="11">
-        <v>10</v>
-      </c>
-      <c r="L26" s="11">
+      <c r="H26" s="4">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4">
         <v>910051</v>
       </c>
-      <c r="M26" s="11">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11" t="s">
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="10">
+      <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F27" s="4">
         <v>22</v>
       </c>
-      <c r="G27" s="11">
-        <v>2</v>
-      </c>
-      <c r="H27" s="12">
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
         <v>100</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="4">
         <v>410011</v>
       </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
         <v>910052</v>
       </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-      <c r="N27" s="11" t="s">
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="10">
+      <c r="B28" s="3">
         <v>23</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F28" s="4">
         <v>23</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="11">
-        <v>10</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
-        <v>2</v>
-      </c>
-      <c r="K28" s="11">
-        <v>10</v>
-      </c>
-      <c r="L28" s="11">
+      <c r="H28" s="4">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4">
         <v>910051</v>
       </c>
-      <c r="M28" s="11">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11" t="s">
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="10">
+      <c r="B29" s="3">
         <v>24</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="E29" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F29" s="4">
         <v>24</v>
       </c>
-      <c r="G29" s="11">
-        <v>2</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
         <v>50</v>
       </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
         <v>910052</v>
       </c>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
-      <c r="N29" s="11" t="s">
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="10">
+      <c r="B30" s="3">
         <v>25</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="E30" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F30" s="4">
         <v>25</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="H30" s="11">
-        <v>10</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <v>2</v>
-      </c>
-      <c r="K30" s="11">
-        <v>10</v>
-      </c>
-      <c r="L30" s="11">
+      <c r="H30" s="4">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4">
         <v>910051</v>
       </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11" t="s">
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="10">
+      <c r="B31" s="3">
         <v>26</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="E31" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F31" s="4">
         <v>26</v>
       </c>
-      <c r="G31" s="11">
-        <v>2</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4">
         <v>50</v>
       </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
-        <v>0</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11">
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
         <v>910052</v>
       </c>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
-      <c r="N31" s="11" t="s">
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="10">
+      <c r="B32" s="3">
         <v>27</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="E32" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F32" s="4">
         <v>27</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="11">
-        <v>10</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-      <c r="J32" s="11">
-        <v>2</v>
-      </c>
-      <c r="K32" s="11">
-        <v>10</v>
-      </c>
-      <c r="L32" s="11">
+      <c r="H32" s="4">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>10</v>
+      </c>
+      <c r="L32" s="4">
         <v>910051</v>
       </c>
-      <c r="M32" s="11">
-        <v>0</v>
-      </c>
-      <c r="N32" s="11" t="s">
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="10">
+      <c r="B33" s="3">
         <v>28</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F33" s="4">
         <v>28</v>
       </c>
-      <c r="G33" s="11">
-        <v>2</v>
-      </c>
-      <c r="H33" s="11">
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4">
         <v>50</v>
       </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
-        <v>0</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11">
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
         <v>910052</v>
       </c>
-      <c r="M33" s="11">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11" t="s">
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="10">
+      <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="E34" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F34" s="4">
         <v>29</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="H34" s="11">
-        <v>10</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <v>2</v>
-      </c>
-      <c r="K34" s="11">
-        <v>10</v>
-      </c>
-      <c r="L34" s="11">
+      <c r="H34" s="4">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>10</v>
+      </c>
+      <c r="L34" s="4">
         <v>910051</v>
       </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-      <c r="N34" s="11" t="s">
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="10">
-        <v>30</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F35" s="11">
-        <v>30</v>
-      </c>
-      <c r="G35" s="11">
-        <v>2</v>
-      </c>
-      <c r="H35" s="11">
+      <c r="E35" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F35" s="4">
+        <v>30</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4">
         <v>50</v>
       </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-      <c r="J35" s="11">
-        <v>0</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
-      </c>
-      <c r="L35" s="11">
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
         <v>910052</v>
       </c>
-      <c r="M35" s="11">
-        <v>0</v>
-      </c>
-      <c r="N35" s="11" t="s">
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="10">
+      <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="E36" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F36" s="4">
         <v>31</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="11">
-        <v>10</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>2</v>
-      </c>
-      <c r="K36" s="11">
-        <v>10</v>
-      </c>
-      <c r="L36" s="11">
+      <c r="H36" s="4">
+        <v>10</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2</v>
+      </c>
+      <c r="K36" s="4">
+        <v>10</v>
+      </c>
+      <c r="L36" s="4">
         <v>910051</v>
       </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11" t="s">
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="10">
+      <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F37" s="4">
         <v>32</v>
       </c>
-      <c r="G37" s="11">
-        <v>2</v>
-      </c>
-      <c r="H37" s="11">
+      <c r="G37" s="4">
+        <v>2</v>
+      </c>
+      <c r="H37" s="4">
         <v>50</v>
       </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="11">
-        <v>0</v>
-      </c>
-      <c r="K37" s="11">
-        <v>0</v>
-      </c>
-      <c r="L37" s="11">
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
         <v>910052</v>
       </c>
-      <c r="M37" s="11">
-        <v>0</v>
-      </c>
-      <c r="N37" s="11" t="s">
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="10">
+      <c r="B38" s="3">
         <v>33</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F38" s="11">
+      <c r="E38" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F38" s="4">
         <v>33</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="11">
-        <v>10</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>2</v>
-      </c>
-      <c r="K38" s="11">
-        <v>10</v>
-      </c>
-      <c r="L38" s="11">
+      <c r="H38" s="4">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>10</v>
+      </c>
+      <c r="L38" s="4">
         <v>910051</v>
       </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-      <c r="N38" s="11" t="s">
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="10">
+      <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="E39" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F39" s="4">
         <v>34</v>
       </c>
-      <c r="G39" s="11">
-        <v>2</v>
-      </c>
-      <c r="H39" s="11">
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
         <v>50</v>
       </c>
-      <c r="I39" s="11">
-        <v>0</v>
-      </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0</v>
-      </c>
-      <c r="L39" s="11">
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
         <v>910052</v>
       </c>
-      <c r="M39" s="11">
-        <v>0</v>
-      </c>
-      <c r="N39" s="11" t="s">
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="10">
+      <c r="B40" s="3">
         <v>35</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F40" s="11">
+      <c r="E40" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F40" s="4">
         <v>35</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="11">
-        <v>10</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>2</v>
-      </c>
-      <c r="K40" s="11">
-        <v>10</v>
-      </c>
-      <c r="L40" s="11">
+      <c r="H40" s="4">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>10</v>
+      </c>
+      <c r="L40" s="4">
         <v>910051</v>
       </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-      <c r="N40" s="11" t="s">
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="10">
+      <c r="B41" s="3">
         <v>36</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F41" s="11">
+      <c r="E41" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F41" s="4">
         <v>36</v>
       </c>
-      <c r="G41" s="11">
-        <v>2</v>
-      </c>
-      <c r="H41" s="11">
+      <c r="G41" s="4">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4">
         <v>50</v>
       </c>
-      <c r="I41" s="11">
-        <v>0</v>
-      </c>
-      <c r="J41" s="11">
-        <v>0</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
-      </c>
-      <c r="L41" s="11">
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
         <v>910052</v>
       </c>
-      <c r="M41" s="11">
-        <v>0</v>
-      </c>
-      <c r="N41" s="11" t="s">
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="10">
+      <c r="B42" s="3">
         <v>37</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="E42" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F42" s="4">
         <v>37</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="4">
         <v>1</v>
       </c>
-      <c r="H42" s="11">
-        <v>10</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <v>2</v>
-      </c>
-      <c r="K42" s="11">
-        <v>10</v>
-      </c>
-      <c r="L42" s="11">
+      <c r="H42" s="4">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>10</v>
+      </c>
+      <c r="L42" s="4">
         <v>910051</v>
       </c>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-      <c r="N42" s="11" t="s">
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="10">
+      <c r="B43" s="3">
         <v>38</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F43" s="11">
+      <c r="E43" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F43" s="4">
         <v>38</v>
       </c>
-      <c r="G43" s="11">
-        <v>2</v>
-      </c>
-      <c r="H43" s="11">
+      <c r="G43" s="4">
+        <v>2</v>
+      </c>
+      <c r="H43" s="4">
         <v>50</v>
       </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-      <c r="J43" s="11">
-        <v>0</v>
-      </c>
-      <c r="K43" s="11">
-        <v>0</v>
-      </c>
-      <c r="L43" s="11">
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
         <v>910052</v>
       </c>
-      <c r="M43" s="11">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11" t="s">
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="10">
+      <c r="B44" s="3">
         <v>39</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F44" s="11">
+      <c r="E44" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F44" s="4">
         <v>39</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="4">
         <v>1</v>
       </c>
-      <c r="H44" s="11">
-        <v>10</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
-        <v>2</v>
-      </c>
-      <c r="K44" s="11">
-        <v>10</v>
-      </c>
-      <c r="L44" s="11">
+      <c r="H44" s="4">
+        <v>10</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>10</v>
+      </c>
+      <c r="L44" s="4">
         <v>910051</v>
       </c>
-      <c r="M44" s="11">
-        <v>0</v>
-      </c>
-      <c r="N44" s="11" t="s">
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="10">
+      <c r="B45" s="3">
         <v>40</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="11">
-        <v>400001</v>
-      </c>
-      <c r="F45" s="11">
+      <c r="E45" s="4">
+        <v>400001</v>
+      </c>
+      <c r="F45" s="4">
         <v>40</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="4">
         <v>3</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="4">
         <v>1000</v>
       </c>
-      <c r="I45" s="11">
-        <v>0</v>
-      </c>
-      <c r="J45" s="11">
-        <v>0</v>
-      </c>
-      <c r="K45" s="11">
-        <v>0</v>
-      </c>
-      <c r="L45" s="11">
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
         <v>910054</v>
       </c>
-      <c r="M45" s="11">
-        <v>0</v>
-      </c>
-      <c r="N45" s="11" t="s">
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="14"/>
+      <c r="B46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
@@ -3719,12 +3725,6 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/07_Stage_Table.xlsx
+++ b/Documents/Table_List/07_Stage_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BF4778-4CFB-4DE9-9A6C-FBF3387AAFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B2DB24-C1D8-4362-B655-0D8F5FD631EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{34FEC1AB-CE44-4252-8407-D99FC290AA8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34FEC1AB-CE44-4252-8407-D99FC290AA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_Table" sheetId="1" r:id="rId1"/>
@@ -1571,25 +1571,25 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1909,81 +1909,81 @@
   <dimension ref="B2:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="1" t="s">
@@ -2131,7 +2131,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="4">
-        <v>410009</v>
+        <v>410001</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
@@ -3712,12 +3712,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
@@ -3725,6 +3719,12 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/07_Stage_Table.xlsx
+++ b/Documents/Table_List/07_Stage_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B2DB24-C1D8-4362-B655-0D8F5FD631EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8976DCDE-19C9-4637-B346-98E6CE4C28A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34FEC1AB-CE44-4252-8407-D99FC290AA8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34FEC1AB-CE44-4252-8407-D99FC290AA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_Table" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>번호</t>
   </si>
@@ -719,9 +719,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage001</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -734,9 +731,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage002</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -749,9 +743,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage003</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -764,9 +755,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage004</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -779,9 +767,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage005</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -794,9 +779,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage006</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -809,9 +791,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage007</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -824,9 +803,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage008</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -839,9 +815,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage009</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -854,9 +827,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage010</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -869,9 +839,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage011</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -884,9 +851,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage012</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -899,9 +863,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage013</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -914,9 +875,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage014</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -929,9 +887,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage015</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -944,9 +899,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage016</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -959,9 +911,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage017</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -974,9 +923,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage018</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -989,9 +935,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage019</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1004,9 +947,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage020</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1019,9 +959,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage021</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1034,9 +971,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage022</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1049,9 +983,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage023</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1064,9 +995,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage024</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1079,9 +1007,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage025</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1094,9 +1019,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage026</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1109,9 +1031,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage027</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1124,9 +1043,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage028</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1139,9 +1055,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage029</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1154,9 +1067,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage030</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1169,9 +1079,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage031</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1184,9 +1091,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage032</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1199,9 +1103,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage033</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1214,9 +1115,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage034</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1229,9 +1127,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage035</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1244,9 +1139,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage036</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1259,9 +1151,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage037</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1274,9 +1163,6 @@
     </r>
   </si>
   <si>
-    <t>1-Stage038</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1289,13 +1175,67 @@
     </r>
   </si>
   <si>
-    <t>1-Stage039</t>
-  </si>
-  <si>
     <t>1-보스 스테이지</t>
   </si>
   <si>
-    <t>1-Boss_Stage</t>
+    <t>1 Stage</t>
+  </si>
+  <si>
+    <t>2 Stage</t>
+  </si>
+  <si>
+    <t>3 Stage</t>
+  </si>
+  <si>
+    <t>4 Stage</t>
+  </si>
+  <si>
+    <t>5 Stage</t>
+  </si>
+  <si>
+    <t>6 Stage</t>
+  </si>
+  <si>
+    <t>7 Stage</t>
+  </si>
+  <si>
+    <t>8 Stage</t>
+  </si>
+  <si>
+    <t>9 Stage</t>
+  </si>
+  <si>
+    <t>10 Stage</t>
+  </si>
+  <si>
+    <t>11 Stage</t>
+  </si>
+  <si>
+    <t>12 Stage</t>
+  </si>
+  <si>
+    <t>13 Stage</t>
+  </si>
+  <si>
+    <t>14 Stage</t>
+  </si>
+  <si>
+    <t>15 Stage</t>
+  </si>
+  <si>
+    <t>16 Stage</t>
+  </si>
+  <si>
+    <t>17 Stage</t>
+  </si>
+  <si>
+    <t>18 Stage</t>
+  </si>
+  <si>
+    <t>19 Stage</t>
+  </si>
+  <si>
+    <t>20 Stage</t>
   </si>
 </sst>
 </file>
@@ -1571,25 +1511,25 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1909,81 +1849,81 @@
   <dimension ref="B2:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="1" t="s">
@@ -2075,7 +2015,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4">
         <v>400001</v>
@@ -2113,10 +2053,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4">
         <v>400001</v>
@@ -2154,10 +2094,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4">
         <v>400001</v>
@@ -2195,10 +2135,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4">
         <v>400001</v>
@@ -2236,10 +2176,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4">
         <v>400001</v>
@@ -2277,10 +2217,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4">
         <v>400001</v>
@@ -2318,10 +2258,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4">
         <v>400001</v>
@@ -2359,10 +2299,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4">
         <v>400001</v>
@@ -2400,10 +2340,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4">
         <v>400001</v>
@@ -2441,10 +2381,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4">
         <v>400001</v>
@@ -2482,10 +2422,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4">
         <v>400001</v>
@@ -2523,10 +2463,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4">
         <v>400001</v>
@@ -2564,10 +2504,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E18" s="4">
         <v>400001</v>
@@ -2605,10 +2545,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4">
         <v>400001</v>
@@ -2646,10 +2586,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4">
         <v>400001</v>
@@ -2687,10 +2627,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E21" s="4">
         <v>400001</v>
@@ -2728,10 +2668,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E22" s="4">
         <v>400001</v>
@@ -2769,10 +2709,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4">
         <v>400001</v>
@@ -2810,10 +2750,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4">
         <v>400001</v>
@@ -2851,10 +2791,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4">
         <v>400001</v>
@@ -2892,10 +2832,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4">
         <v>400001</v>
@@ -2933,10 +2873,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E27" s="4">
         <v>400001</v>
@@ -2948,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I27" s="4">
         <v>410011</v>
@@ -2974,10 +2914,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E28" s="4">
         <v>400001</v>
@@ -3015,10 +2955,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4">
         <v>400001</v>
@@ -3056,10 +2996,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4">
         <v>400001</v>
@@ -3097,10 +3037,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" s="4">
         <v>400001</v>
@@ -3138,7 +3078,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>84</v>
@@ -3179,10 +3119,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E33" s="4">
         <v>400001</v>
@@ -3220,10 +3160,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E34" s="4">
         <v>400001</v>
@@ -3261,10 +3201,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E35" s="4">
         <v>400001</v>
@@ -3302,10 +3242,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E36" s="4">
         <v>400001</v>
@@ -3343,10 +3283,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E37" s="4">
         <v>400001</v>
@@ -3384,10 +3324,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E38" s="4">
         <v>400001</v>
@@ -3425,10 +3365,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E39" s="4">
         <v>400001</v>
@@ -3466,10 +3406,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E40" s="4">
         <v>400001</v>
@@ -3507,10 +3447,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E41" s="4">
         <v>400001</v>
@@ -3548,10 +3488,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E42" s="4">
         <v>400001</v>
@@ -3589,10 +3529,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E43" s="4">
         <v>400001</v>
@@ -3630,10 +3570,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E44" s="4">
         <v>400001</v>
@@ -3671,10 +3611,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E45" s="4">
         <v>400001</v>
@@ -3686,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="4">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="I45" s="4">
         <v>0</v>
@@ -3712,6 +3652,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
@@ -3719,12 +3665,6 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/07_Stage_Table.xlsx
+++ b/Documents/Table_List/07_Stage_Table.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8976DCDE-19C9-4637-B346-98E6CE4C28A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D374B232-08E9-4F0D-9614-519AA9D386D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34FEC1AB-CE44-4252-8407-D99FC290AA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_Table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stage_Table!$B$5:$N$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1511,25 +1514,25 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1849,7 +1852,10 @@
   <dimension ref="B2:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1870,60 +1876,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="1" t="s">
@@ -3651,13 +3657,8 @@
       <c r="B46" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:N5" xr:uid="{6E0F47E7-EFB6-4CD3-A2F2-AFE697F1BD1D}"/>
   <mergeCells count="13">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
@@ -3665,6 +3666,12 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/07_Stage_Table.xlsx
+++ b/Documents/Table_List/07_Stage_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D374B232-08E9-4F0D-9614-519AA9D386D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BAF836-3C0D-48E8-8821-AF2ED3033011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34FEC1AB-CE44-4252-8407-D99FC290AA8F}"/>
+    <workbookView xWindow="1845" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{34FEC1AB-CE44-4252-8407-D99FC290AA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_Table" sheetId="1" r:id="rId1"/>
@@ -1514,25 +1514,25 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1851,11 +1851,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0F47E7-EFB6-4CD3-A2F2-AFE697F1BD1D}">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1876,60 +1876,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="1" t="s">
@@ -2944,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="K28" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L28" s="4">
         <v>910051</v>
@@ -2979,7 +2979,7 @@
         <v>50</v>
       </c>
       <c r="I29" s="4">
-        <v>0</v>
+        <v>410012</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L30" s="4">
         <v>910051</v>
@@ -3061,7 +3061,7 @@
         <v>50</v>
       </c>
       <c r="I31" s="4">
-        <v>0</v>
+        <v>410013</v>
       </c>
       <c r="J31" s="4">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="K32" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L32" s="4">
         <v>910051</v>
@@ -3143,7 +3143,7 @@
         <v>50</v>
       </c>
       <c r="I33" s="4">
-        <v>0</v>
+        <v>410014</v>
       </c>
       <c r="J33" s="4">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L34" s="4">
         <v>910051</v>
@@ -3225,7 +3225,7 @@
         <v>50</v>
       </c>
       <c r="I35" s="4">
-        <v>0</v>
+        <v>410015</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="K36" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L36" s="4">
         <v>910051</v>
@@ -3307,7 +3307,7 @@
         <v>50</v>
       </c>
       <c r="I37" s="4">
-        <v>0</v>
+        <v>410016</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L38" s="4">
         <v>910051</v>
@@ -3389,7 +3389,7 @@
         <v>50</v>
       </c>
       <c r="I39" s="4">
-        <v>0</v>
+        <v>410017</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>2</v>
       </c>
       <c r="K40" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L40" s="4">
         <v>910051</v>
@@ -3471,7 +3471,7 @@
         <v>50</v>
       </c>
       <c r="I41" s="4">
-        <v>0</v>
+        <v>410018</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L42" s="4">
         <v>910051</v>
@@ -3553,7 +3553,7 @@
         <v>50</v>
       </c>
       <c r="I43" s="4">
-        <v>0</v>
+        <v>410019</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L44" s="4">
         <v>910051</v>
@@ -3635,7 +3635,7 @@
         <v>120</v>
       </c>
       <c r="I45" s="4">
-        <v>0</v>
+        <v>410020</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
@@ -3659,6 +3659,12 @@
   </sheetData>
   <autoFilter ref="B5:N5" xr:uid="{6E0F47E7-EFB6-4CD3-A2F2-AFE697F1BD1D}"/>
   <mergeCells count="13">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
@@ -3666,12 +3672,6 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
